--- a/data/pca/factorExposure/factorExposure_2009-01-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-12.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01709715785383471</v>
+        <v>-0.01630745472636564</v>
       </c>
       <c r="C2">
-        <v>0.009370689864000388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01137332116322317</v>
+      </c>
+      <c r="D2">
+        <v>0.01415593537752513</v>
+      </c>
+      <c r="E2">
+        <v>-0.01322661981387227</v>
+      </c>
+      <c r="F2">
+        <v>0.005995633250579841</v>
+      </c>
+      <c r="G2">
+        <v>-0.01949924720088935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08023038508595838</v>
+        <v>-0.08279634784070461</v>
       </c>
       <c r="C4">
-        <v>0.08419714985439564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08731487826847929</v>
+      </c>
+      <c r="D4">
+        <v>-0.06698755999957418</v>
+      </c>
+      <c r="E4">
+        <v>-0.01685677178040471</v>
+      </c>
+      <c r="F4">
+        <v>0.03145297015112226</v>
+      </c>
+      <c r="G4">
+        <v>-0.03222812022156912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003859962821422387</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001290931468074502</v>
+      </c>
+      <c r="D5">
+        <v>-0.001586643545694545</v>
+      </c>
+      <c r="E5">
+        <v>0.005140262155984197</v>
+      </c>
+      <c r="F5">
+        <v>0.000529640721977679</v>
+      </c>
+      <c r="G5">
+        <v>0.00462896335802638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1668346285251722</v>
+        <v>-0.1692558158550919</v>
       </c>
       <c r="C6">
-        <v>-0.02034201863562441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.009390060908844285</v>
+      </c>
+      <c r="D6">
+        <v>-0.05845420144903738</v>
+      </c>
+      <c r="E6">
+        <v>0.04534109613865132</v>
+      </c>
+      <c r="F6">
+        <v>-0.03421406373780771</v>
+      </c>
+      <c r="G6">
+        <v>0.007988575354813473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05473469838406318</v>
+        <v>-0.05665706912228512</v>
       </c>
       <c r="C7">
-        <v>0.05795184224329242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06331270429652897</v>
+      </c>
+      <c r="D7">
+        <v>-0.06295155737846271</v>
+      </c>
+      <c r="E7">
+        <v>-0.07444790835900048</v>
+      </c>
+      <c r="F7">
+        <v>0.02063880486509708</v>
+      </c>
+      <c r="G7">
+        <v>-0.06763329683764027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05398156102484551</v>
+        <v>-0.05129190159566998</v>
       </c>
       <c r="C8">
-        <v>0.05582467145929548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05471093231346304</v>
+      </c>
+      <c r="D8">
+        <v>0.01640881155596988</v>
+      </c>
+      <c r="E8">
+        <v>-0.03466938216847585</v>
+      </c>
+      <c r="F8">
+        <v>0.02338909902204028</v>
+      </c>
+      <c r="G8">
+        <v>0.001314359822286147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05852332609728052</v>
+        <v>-0.06273183901868212</v>
       </c>
       <c r="C9">
-        <v>0.09066514863372613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09214223629703425</v>
+      </c>
+      <c r="D9">
+        <v>-0.09083209549616508</v>
+      </c>
+      <c r="E9">
+        <v>-0.04221280068941573</v>
+      </c>
+      <c r="F9">
+        <v>0.03845938514031987</v>
+      </c>
+      <c r="G9">
+        <v>-0.005766291774632283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1138317119388104</v>
+        <v>-0.1023807214744443</v>
       </c>
       <c r="C10">
-        <v>-0.1456051986217593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1362917799255188</v>
+      </c>
+      <c r="D10">
+        <v>0.1011662591259071</v>
+      </c>
+      <c r="E10">
+        <v>-0.03919213501968245</v>
+      </c>
+      <c r="F10">
+        <v>0.02434824024727589</v>
+      </c>
+      <c r="G10">
+        <v>0.02156866603014556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07869296287291241</v>
+        <v>-0.0760335806961229</v>
       </c>
       <c r="C11">
-        <v>0.1306627021094261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1299106062786613</v>
+      </c>
+      <c r="D11">
+        <v>-0.04885141533585829</v>
+      </c>
+      <c r="E11">
+        <v>-0.05552954340074857</v>
+      </c>
+      <c r="F11">
+        <v>0.05370038338852056</v>
+      </c>
+      <c r="G11">
+        <v>0.003068916448155887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07954629109158513</v>
+        <v>-0.07647371153844845</v>
       </c>
       <c r="C12">
-        <v>0.1570506848276453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.154115763939363</v>
+      </c>
+      <c r="D12">
+        <v>-0.05648756527787522</v>
+      </c>
+      <c r="E12">
+        <v>-0.06150895161972701</v>
+      </c>
+      <c r="F12">
+        <v>0.05075881597991137</v>
+      </c>
+      <c r="G12">
+        <v>-0.01456394988240969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04017432836847185</v>
+        <v>-0.04215820461116532</v>
       </c>
       <c r="C13">
-        <v>0.06827545222348629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07293603245580361</v>
+      </c>
+      <c r="D13">
+        <v>-0.03036239164180111</v>
+      </c>
+      <c r="E13">
+        <v>-0.06995743584542596</v>
+      </c>
+      <c r="F13">
+        <v>0.03879981236088537</v>
+      </c>
+      <c r="G13">
+        <v>-0.0260445708444173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0202589418338202</v>
+        <v>-0.02271421555514865</v>
       </c>
       <c r="C14">
-        <v>0.04801308171180387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.04893707204861841</v>
+      </c>
+      <c r="D14">
+        <v>-0.04320052695390587</v>
+      </c>
+      <c r="E14">
+        <v>-0.05688987979155104</v>
+      </c>
+      <c r="F14">
+        <v>0.04916715976176156</v>
+      </c>
+      <c r="G14">
+        <v>0.01043330616069727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03181264012763102</v>
+        <v>-0.03310887951449446</v>
       </c>
       <c r="C15">
-        <v>0.05981363480714932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.0582527829215783</v>
+      </c>
+      <c r="D15">
+        <v>-0.04730280211728292</v>
+      </c>
+      <c r="E15">
+        <v>-0.03399636925145161</v>
+      </c>
+      <c r="F15">
+        <v>0.0008724432922800544</v>
+      </c>
+      <c r="G15">
+        <v>-0.002070354305399933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05718302526452776</v>
+        <v>-0.05605270706313539</v>
       </c>
       <c r="C16">
-        <v>0.1532714814742916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1517674639304597</v>
+      </c>
+      <c r="D16">
+        <v>-0.05434826189443377</v>
+      </c>
+      <c r="E16">
+        <v>-0.03708857822520949</v>
+      </c>
+      <c r="F16">
+        <v>0.06471420647175193</v>
+      </c>
+      <c r="G16">
+        <v>0.007028434250034244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.00639312497587745</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.004266360004963547</v>
+      </c>
+      <c r="D17">
+        <v>0.0006688916761988128</v>
+      </c>
+      <c r="E17">
+        <v>0.006563704357626907</v>
+      </c>
+      <c r="F17">
+        <v>-0.007058192653050635</v>
+      </c>
+      <c r="G17">
+        <v>0.01218261203223196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04182888513186993</v>
+        <v>-0.05265209662240573</v>
       </c>
       <c r="C18">
-        <v>0.05195165949664382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04709432502445321</v>
+      </c>
+      <c r="D18">
+        <v>0.004331856024338119</v>
+      </c>
+      <c r="E18">
+        <v>0.039413186734362</v>
+      </c>
+      <c r="F18">
+        <v>-0.04163585866858528</v>
+      </c>
+      <c r="G18">
+        <v>0.01054556746926768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05702745265127252</v>
+        <v>-0.05642806224228256</v>
       </c>
       <c r="C20">
-        <v>0.09975763031704457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.09822973398098071</v>
+      </c>
+      <c r="D20">
+        <v>-0.07859080687305159</v>
+      </c>
+      <c r="E20">
+        <v>-0.04862045193809406</v>
+      </c>
+      <c r="F20">
+        <v>0.04710012980182831</v>
+      </c>
+      <c r="G20">
+        <v>0.002665525017272155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04351022349628265</v>
+        <v>-0.04446656504034673</v>
       </c>
       <c r="C21">
-        <v>0.0639147200701996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06096936193006001</v>
+      </c>
+      <c r="D21">
+        <v>-0.01147648082475744</v>
+      </c>
+      <c r="E21">
+        <v>-0.06315949662993371</v>
+      </c>
+      <c r="F21">
+        <v>0.03293936976613936</v>
+      </c>
+      <c r="G21">
+        <v>-0.02880156376782634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04486452997887399</v>
+        <v>-0.04490350141726159</v>
       </c>
       <c r="C22">
-        <v>0.03209932097437127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03681477986986911</v>
+      </c>
+      <c r="D22">
+        <v>0.07340946955278004</v>
+      </c>
+      <c r="E22">
+        <v>0.1243943332323351</v>
+      </c>
+      <c r="F22">
+        <v>0.08874123317113644</v>
+      </c>
+      <c r="G22">
+        <v>0.0817586422278387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04487400666806547</v>
+        <v>-0.04491176311082551</v>
       </c>
       <c r="C23">
-        <v>0.03209294881184389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03680920779760852</v>
+      </c>
+      <c r="D23">
+        <v>0.07344559431870591</v>
+      </c>
+      <c r="E23">
+        <v>0.1244071403019141</v>
+      </c>
+      <c r="F23">
+        <v>0.08875991562528708</v>
+      </c>
+      <c r="G23">
+        <v>0.08181972898143736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06562133906129494</v>
+        <v>-0.06404143092460521</v>
       </c>
       <c r="C24">
-        <v>0.1396709769054032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1367145359110765</v>
+      </c>
+      <c r="D24">
+        <v>-0.05673026576864421</v>
+      </c>
+      <c r="E24">
+        <v>-0.04965216362111902</v>
+      </c>
+      <c r="F24">
+        <v>0.05144205151775927</v>
+      </c>
+      <c r="G24">
+        <v>-0.007079306183075473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07103091136090191</v>
+        <v>-0.06885445361594505</v>
       </c>
       <c r="C25">
-        <v>0.1220859449795615</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1204569245149169</v>
+      </c>
+      <c r="D25">
+        <v>-0.03940339656854912</v>
+      </c>
+      <c r="E25">
+        <v>-0.08636274830179194</v>
+      </c>
+      <c r="F25">
+        <v>0.03993250936131301</v>
+      </c>
+      <c r="G25">
+        <v>-0.02342748744967853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05612240049094093</v>
+        <v>-0.05967343019821252</v>
       </c>
       <c r="C26">
-        <v>0.07021981510486962</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.0723985757560654</v>
+      </c>
+      <c r="D26">
+        <v>-0.02093170999949139</v>
+      </c>
+      <c r="E26">
+        <v>-0.06469409465024306</v>
+      </c>
+      <c r="F26">
+        <v>0.04264513075566524</v>
+      </c>
+      <c r="G26">
+        <v>-0.007477667468172806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1725030490815473</v>
+        <v>-0.1759081592318684</v>
       </c>
       <c r="C28">
-        <v>-0.2301125166851931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2300958283769679</v>
+      </c>
+      <c r="D28">
+        <v>0.01178801767075986</v>
+      </c>
+      <c r="E28">
+        <v>-0.1458482942793633</v>
+      </c>
+      <c r="F28">
+        <v>0.05302973929769856</v>
+      </c>
+      <c r="G28">
+        <v>-0.008776341558008324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02467382989417354</v>
+        <v>-0.02672089145137713</v>
       </c>
       <c r="C29">
-        <v>0.05510225991507007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0529756552881601</v>
+      </c>
+      <c r="D29">
+        <v>-0.008357506899159633</v>
+      </c>
+      <c r="E29">
+        <v>-0.05143109524169251</v>
+      </c>
+      <c r="F29">
+        <v>0.04863805009186852</v>
+      </c>
+      <c r="G29">
+        <v>0.006967241021118906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0378012298532601</v>
+        <v>-0.03913322144721378</v>
       </c>
       <c r="C30">
-        <v>0.06738573574030075</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07516240631720049</v>
+      </c>
+      <c r="D30">
+        <v>-0.1312635071076838</v>
+      </c>
+      <c r="E30">
+        <v>-0.09889315305739609</v>
+      </c>
+      <c r="F30">
+        <v>-0.00156852375387287</v>
+      </c>
+      <c r="G30">
+        <v>-0.02226935215891288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05262632232025521</v>
+        <v>-0.05166426660847009</v>
       </c>
       <c r="C31">
-        <v>0.03639595367167792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03834756622335473</v>
+      </c>
+      <c r="D31">
+        <v>-0.006654591729556463</v>
+      </c>
+      <c r="E31">
+        <v>0.01364567341464191</v>
+      </c>
+      <c r="F31">
+        <v>0.0436615943967034</v>
+      </c>
+      <c r="G31">
+        <v>-0.002952251021084336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04391749929550393</v>
+        <v>-0.0470224082205892</v>
       </c>
       <c r="C32">
-        <v>0.05436660296548287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05267282111149087</v>
+      </c>
+      <c r="D32">
+        <v>-0.01813988395559594</v>
+      </c>
+      <c r="E32">
+        <v>0.001536657979927171</v>
+      </c>
+      <c r="F32">
+        <v>0.001604347317939161</v>
+      </c>
+      <c r="G32">
+        <v>0.002045050183699564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07761921855538946</v>
+        <v>-0.08137142573365828</v>
       </c>
       <c r="C33">
-        <v>0.1158219347763134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1247327757168628</v>
+      </c>
+      <c r="D33">
+        <v>-0.07071683560219919</v>
+      </c>
+      <c r="E33">
+        <v>-0.04514352073740972</v>
+      </c>
+      <c r="F33">
+        <v>0.053676567855533</v>
+      </c>
+      <c r="G33">
+        <v>0.01013588477012965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0543138602744716</v>
+        <v>-0.05343588675602353</v>
       </c>
       <c r="C34">
-        <v>0.1244985822151137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1242679461476875</v>
+      </c>
+      <c r="D34">
+        <v>-0.07790907380480258</v>
+      </c>
+      <c r="E34">
+        <v>-0.07785746954605269</v>
+      </c>
+      <c r="F34">
+        <v>0.03793430050733499</v>
+      </c>
+      <c r="G34">
+        <v>0.02348428102756957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02603999198843089</v>
+        <v>-0.02881217115931749</v>
       </c>
       <c r="C35">
-        <v>0.01824237164376244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02017742411778051</v>
+      </c>
+      <c r="D35">
+        <v>-0.01437015669186053</v>
+      </c>
+      <c r="E35">
+        <v>-0.02070188984891758</v>
+      </c>
+      <c r="F35">
+        <v>0.01909354489057684</v>
+      </c>
+      <c r="G35">
+        <v>0.03005032184976166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02426386253134882</v>
+        <v>-0.02693397967686632</v>
       </c>
       <c r="C36">
-        <v>0.05386030037711414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05226598568200141</v>
+      </c>
+      <c r="D36">
+        <v>-0.05873768088944765</v>
+      </c>
+      <c r="E36">
+        <v>-0.01989481346890609</v>
+      </c>
+      <c r="F36">
+        <v>0.00496878941938004</v>
+      </c>
+      <c r="G36">
+        <v>0.09043829753254413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005941316516731255</v>
+        <v>-0.003718385755171355</v>
       </c>
       <c r="C37">
-        <v>-0.0004132593560086957</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007357310652253612</v>
+      </c>
+      <c r="D37">
+        <v>-0.001663348229265234</v>
+      </c>
+      <c r="E37">
+        <v>-0.00739487191420025</v>
+      </c>
+      <c r="F37">
+        <v>0.00827605069204348</v>
+      </c>
+      <c r="G37">
+        <v>-0.005410059043161438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07970563998748861</v>
+        <v>-0.0751169263542748</v>
       </c>
       <c r="C39">
-        <v>0.152580884067077</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.145927447628856</v>
+      </c>
+      <c r="D39">
+        <v>-0.0239767887893525</v>
+      </c>
+      <c r="E39">
+        <v>-0.08171455291375103</v>
+      </c>
+      <c r="F39">
+        <v>0.1062695394636552</v>
+      </c>
+      <c r="G39">
+        <v>-0.03663508343769288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04638455957200886</v>
+        <v>-0.04949221308628426</v>
       </c>
       <c r="C40">
-        <v>0.07132871480358652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07720005862990782</v>
+      </c>
+      <c r="D40">
+        <v>-0.009821602553279764</v>
+      </c>
+      <c r="E40">
+        <v>-0.05398587473314433</v>
+      </c>
+      <c r="F40">
+        <v>0.0008337422592537508</v>
+      </c>
+      <c r="G40">
+        <v>0.02305358958083264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02802206245756257</v>
+        <v>-0.02821129320537724</v>
       </c>
       <c r="C41">
-        <v>0.02324004818523646</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02419709137512707</v>
+      </c>
+      <c r="D41">
+        <v>0.009756915908719032</v>
+      </c>
+      <c r="E41">
+        <v>0.005058152109418416</v>
+      </c>
+      <c r="F41">
+        <v>-0.01297286425718327</v>
+      </c>
+      <c r="G41">
+        <v>0.008680840089038949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04238916934371075</v>
+        <v>-0.04104559834613421</v>
       </c>
       <c r="C43">
-        <v>0.04028496270883003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03706478723665561</v>
+      </c>
+      <c r="D43">
+        <v>0.008042365397310668</v>
+      </c>
+      <c r="E43">
+        <v>0.00612454418915748</v>
+      </c>
+      <c r="F43">
+        <v>0.04068523552410297</v>
+      </c>
+      <c r="G43">
+        <v>0.02200847437762673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05699506452372518</v>
+        <v>-0.06232223700176782</v>
       </c>
       <c r="C44">
-        <v>0.08883114107234903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.09062017410540008</v>
+      </c>
+      <c r="D44">
+        <v>-0.2788814289761486</v>
+      </c>
+      <c r="E44">
+        <v>-0.140253027587288</v>
+      </c>
+      <c r="F44">
+        <v>0.01969143507201723</v>
+      </c>
+      <c r="G44">
+        <v>0.1588933163373564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0005916910403892764</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0006430954738100196</v>
+      </c>
+      <c r="D45">
+        <v>0.0001729774424288017</v>
+      </c>
+      <c r="E45">
+        <v>0.002440094157853203</v>
+      </c>
+      <c r="F45">
+        <v>-0.0006674295510740742</v>
+      </c>
+      <c r="G45">
+        <v>-0.004206181040895949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02769070243284533</v>
+        <v>-0.02881509613517729</v>
       </c>
       <c r="C46">
-        <v>0.0417572837289192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.03981308536111092</v>
+      </c>
+      <c r="D46">
+        <v>-0.008154250993598747</v>
+      </c>
+      <c r="E46">
+        <v>-0.02478671092754561</v>
+      </c>
+      <c r="F46">
+        <v>0.07503604646190892</v>
+      </c>
+      <c r="G46">
+        <v>-0.00450090972513965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05424079486552635</v>
+        <v>-0.0531685385632968</v>
       </c>
       <c r="C47">
-        <v>0.03812307519755308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03763567084091504</v>
+      </c>
+      <c r="D47">
+        <v>0.02491744835247</v>
+      </c>
+      <c r="E47">
+        <v>0.04836813449678673</v>
+      </c>
+      <c r="F47">
+        <v>0.04325714888646293</v>
+      </c>
+      <c r="G47">
+        <v>0.009717326229797778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04637302497588626</v>
+        <v>-0.04888927823124251</v>
       </c>
       <c r="C48">
-        <v>0.06991869745077622</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.06947504512917471</v>
+      </c>
+      <c r="D48">
+        <v>-0.02592097945961983</v>
+      </c>
+      <c r="E48">
+        <v>-0.05825125312387288</v>
+      </c>
+      <c r="F48">
+        <v>0.02685673390862249</v>
+      </c>
+      <c r="G48">
+        <v>-0.0376518821983276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1918076423527438</v>
+        <v>-0.1970473617179098</v>
       </c>
       <c r="C49">
-        <v>-0.0176086006237356</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01257455196517654</v>
+      </c>
+      <c r="D49">
+        <v>-0.04981049409222885</v>
+      </c>
+      <c r="E49">
+        <v>0.02636731984575778</v>
+      </c>
+      <c r="F49">
+        <v>-0.04073619591185731</v>
+      </c>
+      <c r="G49">
+        <v>-0.04076346139474513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0519070104639379</v>
+        <v>-0.05214406124534553</v>
       </c>
       <c r="C50">
-        <v>0.03492778445463923</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.0373622389561061</v>
+      </c>
+      <c r="D50">
+        <v>-0.0204867140020425</v>
+      </c>
+      <c r="E50">
+        <v>0.01319143723507276</v>
+      </c>
+      <c r="F50">
+        <v>0.03078522685552448</v>
+      </c>
+      <c r="G50">
+        <v>-0.01029998763359117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1413025031095171</v>
+        <v>-0.1362345544434543</v>
       </c>
       <c r="C52">
-        <v>0.03515189971312911</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03391222200170937</v>
+      </c>
+      <c r="D52">
+        <v>-0.04648962677166692</v>
+      </c>
+      <c r="E52">
+        <v>0.09894440437617094</v>
+      </c>
+      <c r="F52">
+        <v>0.003837934157316192</v>
+      </c>
+      <c r="G52">
+        <v>0.002647831990321021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1680474688394478</v>
+        <v>-0.1619296359303906</v>
       </c>
       <c r="C53">
-        <v>-0.009793871318222323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.005842879156268957</v>
+      </c>
+      <c r="D53">
+        <v>-0.08874535188160627</v>
+      </c>
+      <c r="E53">
+        <v>0.1599352472215786</v>
+      </c>
+      <c r="F53">
+        <v>0.004478481755470228</v>
+      </c>
+      <c r="G53">
+        <v>-0.01896061215966254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01168909078388778</v>
+        <v>-0.01367012595086567</v>
       </c>
       <c r="C54">
-        <v>0.03774947770300274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.03694113378020807</v>
+      </c>
+      <c r="D54">
+        <v>-0.01418402852489466</v>
+      </c>
+      <c r="E54">
+        <v>-0.02578054281015001</v>
+      </c>
+      <c r="F54">
+        <v>0.03877342091508806</v>
+      </c>
+      <c r="G54">
+        <v>0.0002263362968620025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1211410802248731</v>
+        <v>-0.1187437909245323</v>
       </c>
       <c r="C55">
-        <v>0.01220839485079997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01649845719042118</v>
+      </c>
+      <c r="D55">
+        <v>-0.0617420717108029</v>
+      </c>
+      <c r="E55">
+        <v>0.1016111425107085</v>
+      </c>
+      <c r="F55">
+        <v>0.05940794096836149</v>
+      </c>
+      <c r="G55">
+        <v>-0.008443080525125522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1793840153278392</v>
+        <v>-0.1742342848822775</v>
       </c>
       <c r="C56">
-        <v>-0.0063425366566909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.00521617635837789</v>
+      </c>
+      <c r="D56">
+        <v>-0.03908142829350613</v>
+      </c>
+      <c r="E56">
+        <v>0.1812837044317926</v>
+      </c>
+      <c r="F56">
+        <v>-0.01603607902567286</v>
+      </c>
+      <c r="G56">
+        <v>-0.02923386491119176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04248402150436537</v>
+        <v>-0.04172041655009254</v>
       </c>
       <c r="C58">
-        <v>0.0985547576667701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1079988195929571</v>
+      </c>
+      <c r="D58">
+        <v>0.003100381668220299</v>
+      </c>
+      <c r="E58">
+        <v>-0.007884567170272376</v>
+      </c>
+      <c r="F58">
+        <v>0.04716486170908318</v>
+      </c>
+      <c r="G58">
+        <v>-0.008919462533721025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1865306659018622</v>
+        <v>-0.1924320610664034</v>
       </c>
       <c r="C59">
-        <v>-0.1712330683756156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.17788379773806</v>
+      </c>
+      <c r="D59">
+        <v>0.08713374263051897</v>
+      </c>
+      <c r="E59">
+        <v>-0.04503098744347205</v>
+      </c>
+      <c r="F59">
+        <v>0.06341609174115884</v>
+      </c>
+      <c r="G59">
+        <v>-0.03814850134590374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2116603883347013</v>
+        <v>-0.2092457450236945</v>
       </c>
       <c r="C60">
-        <v>0.007010328117184625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.01115258127526069</v>
+      </c>
+      <c r="D60">
+        <v>0.05087410419634142</v>
+      </c>
+      <c r="E60">
+        <v>0.1720300646263767</v>
+      </c>
+      <c r="F60">
+        <v>-0.07860849932172005</v>
+      </c>
+      <c r="G60">
+        <v>-0.1014819621893439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06310081635527727</v>
+        <v>-0.06052472881007134</v>
       </c>
       <c r="C61">
-        <v>0.127025647350267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1249747472200647</v>
+      </c>
+      <c r="D61">
+        <v>-0.02487929155976906</v>
+      </c>
+      <c r="E61">
+        <v>-0.05807469061085958</v>
+      </c>
+      <c r="F61">
+        <v>0.05989142008176206</v>
+      </c>
+      <c r="G61">
+        <v>-0.02040773967529395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1691589597379907</v>
+        <v>-0.1655354669541987</v>
       </c>
       <c r="C62">
-        <v>-0.005040008602132911</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004470778603831606</v>
+      </c>
+      <c r="D62">
+        <v>-0.03690739162997778</v>
+      </c>
+      <c r="E62">
+        <v>0.1561667714175116</v>
+      </c>
+      <c r="F62">
+        <v>-0.006159717499954097</v>
+      </c>
+      <c r="G62">
+        <v>-0.01444536151080486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03917322967593405</v>
+        <v>-0.0419815508702343</v>
       </c>
       <c r="C63">
-        <v>0.0772830925928194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08045772920042503</v>
+      </c>
+      <c r="D63">
+        <v>-0.02032723460271981</v>
+      </c>
+      <c r="E63">
+        <v>-0.02961237942590845</v>
+      </c>
+      <c r="F63">
+        <v>0.02824766485241036</v>
+      </c>
+      <c r="G63">
+        <v>0.02974691795377029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1123032434889496</v>
+        <v>-0.10957636447929</v>
       </c>
       <c r="C64">
-        <v>0.05369804819441105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.05765187056535148</v>
+      </c>
+      <c r="D64">
+        <v>-0.02804325678840812</v>
+      </c>
+      <c r="E64">
+        <v>0.03401253301244476</v>
+      </c>
+      <c r="F64">
+        <v>-0.02317315486982096</v>
+      </c>
+      <c r="G64">
+        <v>-0.0102152328612697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1584284425714485</v>
+        <v>-0.1619146247545954</v>
       </c>
       <c r="C65">
-        <v>-0.05993485118224248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04799479219688598</v>
+      </c>
+      <c r="D65">
+        <v>-0.06348082039837956</v>
+      </c>
+      <c r="E65">
+        <v>0.0263546942505718</v>
+      </c>
+      <c r="F65">
+        <v>0.01830240179864676</v>
+      </c>
+      <c r="G65">
+        <v>1.335695877441705e-05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09620975833140473</v>
+        <v>-0.09154911744907825</v>
       </c>
       <c r="C66">
-        <v>0.1317560262461506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1307066278312405</v>
+      </c>
+      <c r="D66">
+        <v>-0.02558733494888043</v>
+      </c>
+      <c r="E66">
+        <v>-0.07868270437570758</v>
+      </c>
+      <c r="F66">
+        <v>0.05920700351217874</v>
+      </c>
+      <c r="G66">
+        <v>0.0002038132795081255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05558341872970991</v>
+        <v>-0.04843496998726393</v>
       </c>
       <c r="C67">
-        <v>0.09478738766453654</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.08556526375653203</v>
+      </c>
+      <c r="D67">
+        <v>0.06147355271299764</v>
+      </c>
+      <c r="E67">
+        <v>0.07856476060867257</v>
+      </c>
+      <c r="F67">
+        <v>0.02914110690373697</v>
+      </c>
+      <c r="G67">
+        <v>0.04003881713765789</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1419889656037938</v>
+        <v>-0.144291921629043</v>
       </c>
       <c r="C68">
-        <v>-0.2499197723151435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2502908988231951</v>
+      </c>
+      <c r="D68">
+        <v>0.02165671076675465</v>
+      </c>
+      <c r="E68">
+        <v>-0.1596661559577842</v>
+      </c>
+      <c r="F68">
+        <v>0.02027736958478386</v>
+      </c>
+      <c r="G68">
+        <v>-0.05270974504854316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03953955137696377</v>
+        <v>-0.03846533990518894</v>
       </c>
       <c r="C69">
-        <v>0.0192454515520811</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.02083492386307919</v>
+      </c>
+      <c r="D69">
+        <v>0.004323338390332328</v>
+      </c>
+      <c r="E69">
+        <v>0.07211786764192438</v>
+      </c>
+      <c r="F69">
+        <v>0.004490940022334782</v>
+      </c>
+      <c r="G69">
+        <v>0.0496756561023496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07579065611375399</v>
+        <v>-0.07372545070166607</v>
       </c>
       <c r="C70">
-        <v>0.09784399286790842</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09471047810017907</v>
+      </c>
+      <c r="D70">
+        <v>0.5037354905243602</v>
+      </c>
+      <c r="E70">
+        <v>0.3232168187167954</v>
+      </c>
+      <c r="F70">
+        <v>-0.0433110875329728</v>
+      </c>
+      <c r="G70">
+        <v>-0.5042445350347579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.166735568915752</v>
+        <v>-0.1694250449994688</v>
       </c>
       <c r="C71">
-        <v>-0.2577115714028159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2555051696045788</v>
+      </c>
+      <c r="D71">
+        <v>0.02309359060568526</v>
+      </c>
+      <c r="E71">
+        <v>-0.1675239175439577</v>
+      </c>
+      <c r="F71">
+        <v>0.01989615292514435</v>
+      </c>
+      <c r="G71">
+        <v>-0.05665286736804038</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.144690065100602</v>
+        <v>-0.1493819218399965</v>
       </c>
       <c r="C72">
-        <v>0.009329337040352511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.00913590213916024</v>
+      </c>
+      <c r="D72">
+        <v>-0.05746920852376179</v>
+      </c>
+      <c r="E72">
+        <v>0.0746589588408185</v>
+      </c>
+      <c r="F72">
+        <v>0.03629128670608198</v>
+      </c>
+      <c r="G72">
+        <v>0.05492067717087633</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1915724059942493</v>
+        <v>-0.1994262199309174</v>
       </c>
       <c r="C73">
-        <v>0.02685379857530848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.03332197823045036</v>
+      </c>
+      <c r="D73">
+        <v>-0.06043600056356305</v>
+      </c>
+      <c r="E73">
+        <v>0.1334568656771939</v>
+      </c>
+      <c r="F73">
+        <v>-0.01795807502030749</v>
+      </c>
+      <c r="G73">
+        <v>0.02825984418913796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08681667516399383</v>
+        <v>-0.08557755666898614</v>
       </c>
       <c r="C74">
-        <v>0.003950411521163465</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01067297393276249</v>
+      </c>
+      <c r="D74">
+        <v>-0.07110481532230918</v>
+      </c>
+      <c r="E74">
+        <v>0.08123546391471913</v>
+      </c>
+      <c r="F74">
+        <v>-0.01817732511035287</v>
+      </c>
+      <c r="G74">
+        <v>0.01821034739381453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1229634682364544</v>
+        <v>-0.115318350446191</v>
       </c>
       <c r="C75">
-        <v>0.02561867100448994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02700912653456732</v>
+      </c>
+      <c r="D75">
+        <v>-0.03872664629410569</v>
+      </c>
+      <c r="E75">
+        <v>0.118923812606087</v>
+      </c>
+      <c r="F75">
+        <v>0.03425066849204422</v>
+      </c>
+      <c r="G75">
+        <v>0.02008699945790642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07560367983257175</v>
+        <v>-0.08644421079010149</v>
       </c>
       <c r="C77">
-        <v>0.1177790002008578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1215986356317366</v>
+      </c>
+      <c r="D77">
+        <v>-0.07896919581341687</v>
+      </c>
+      <c r="E77">
+        <v>-0.06575885775287682</v>
+      </c>
+      <c r="F77">
+        <v>0.06289227968794642</v>
+      </c>
+      <c r="G77">
+        <v>-0.1434259033980507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08342319862063649</v>
+        <v>-0.08814007005265273</v>
       </c>
       <c r="C78">
-        <v>0.1235154577495739</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1237798445719283</v>
+      </c>
+      <c r="D78">
+        <v>-0.07390721699666228</v>
+      </c>
+      <c r="E78">
+        <v>-0.03376526209186682</v>
+      </c>
+      <c r="F78">
+        <v>0.128875542023079</v>
+      </c>
+      <c r="G78">
+        <v>-0.0485226382326948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1670966346279903</v>
+        <v>-0.1630766480632711</v>
       </c>
       <c r="C79">
-        <v>0.02037565854834537</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02150457723375849</v>
+      </c>
+      <c r="D79">
+        <v>-0.02416635322544753</v>
+      </c>
+      <c r="E79">
+        <v>0.0973933067309202</v>
+      </c>
+      <c r="F79">
+        <v>0.02512407990005253</v>
+      </c>
+      <c r="G79">
+        <v>0.004239025910961741</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07772108641789836</v>
+        <v>-0.07426316898694048</v>
       </c>
       <c r="C80">
-        <v>0.08141035342492552</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.07570478230556535</v>
+      </c>
+      <c r="D80">
+        <v>0.003826295070715419</v>
+      </c>
+      <c r="E80">
+        <v>-0.08942801019905021</v>
+      </c>
+      <c r="F80">
+        <v>0.01651674718480821</v>
+      </c>
+      <c r="G80">
+        <v>0.06945662942680927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1122250964458409</v>
+        <v>-0.1056915541367872</v>
       </c>
       <c r="C81">
-        <v>-0.01483218462703558</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01244249079832112</v>
+      </c>
+      <c r="D81">
+        <v>-0.01347700806246327</v>
+      </c>
+      <c r="E81">
+        <v>0.1306477514623878</v>
+      </c>
+      <c r="F81">
+        <v>0.02875124621657205</v>
+      </c>
+      <c r="G81">
+        <v>0.06363632762232821</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1633679676056711</v>
+        <v>-0.1580697433748424</v>
       </c>
       <c r="C82">
-        <v>-0.01516793941746075</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01062712496717702</v>
+      </c>
+      <c r="D82">
+        <v>-0.08699710838699025</v>
+      </c>
+      <c r="E82">
+        <v>0.1278338575970655</v>
+      </c>
+      <c r="F82">
+        <v>-0.05063384226255721</v>
+      </c>
+      <c r="G82">
+        <v>0.0262910394659128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05344047981282293</v>
+        <v>-0.0495173437416221</v>
       </c>
       <c r="C83">
-        <v>0.06854391250214284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06325852454584104</v>
+      </c>
+      <c r="D83">
+        <v>0.008936595730023714</v>
+      </c>
+      <c r="E83">
+        <v>-0.003115363247660341</v>
+      </c>
+      <c r="F83">
+        <v>-0.007413757118370186</v>
+      </c>
+      <c r="G83">
+        <v>-0.02387815503329257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04851422357008331</v>
+        <v>-0.04715362823056314</v>
       </c>
       <c r="C84">
-        <v>0.07746011393151105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.0742813364476769</v>
+      </c>
+      <c r="D84">
+        <v>0.01621377910412205</v>
+      </c>
+      <c r="E84">
+        <v>0.02161894568039745</v>
+      </c>
+      <c r="F84">
+        <v>0.01339406896950403</v>
+      </c>
+      <c r="G84">
+        <v>-0.02022202158091129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1384743694428964</v>
+        <v>-0.1340051550879455</v>
       </c>
       <c r="C85">
-        <v>0.007122875192044067</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.009003064371355235</v>
+      </c>
+      <c r="D85">
+        <v>-0.08432296892494899</v>
+      </c>
+      <c r="E85">
+        <v>0.09093109386753893</v>
+      </c>
+      <c r="F85">
+        <v>0.02446713530894663</v>
+      </c>
+      <c r="G85">
+        <v>0.01741932896733027</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08395945128068047</v>
+        <v>-0.0836198216380033</v>
       </c>
       <c r="C86">
-        <v>0.1568101563130323</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.156666881583338</v>
+      </c>
+      <c r="D86">
+        <v>0.5947349269504109</v>
+      </c>
+      <c r="E86">
+        <v>-0.1669862428893598</v>
+      </c>
+      <c r="F86">
+        <v>0.5170629758117901</v>
+      </c>
+      <c r="G86">
+        <v>0.372594705178369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.08952764711876816</v>
+        <v>-0.08597554437086589</v>
       </c>
       <c r="C87">
-        <v>0.101896401774908</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1006044211004008</v>
+      </c>
+      <c r="D87">
+        <v>-0.08895215706886501</v>
+      </c>
+      <c r="E87">
+        <v>-0.1887607716885312</v>
+      </c>
+      <c r="F87">
+        <v>-0.08800800176978105</v>
+      </c>
+      <c r="G87">
+        <v>-0.06102586545648811</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06013737651640747</v>
+        <v>-0.05994795115634526</v>
       </c>
       <c r="C88">
-        <v>0.06138872027731913</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06171417686129143</v>
+      </c>
+      <c r="D88">
+        <v>-0.01057738283897862</v>
+      </c>
+      <c r="E88">
+        <v>0.03174108266558089</v>
+      </c>
+      <c r="F88">
+        <v>-0.0003844665504544468</v>
+      </c>
+      <c r="G88">
+        <v>-0.003868195519414279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1520731009256916</v>
+        <v>-0.1515423073258829</v>
       </c>
       <c r="C89">
-        <v>-0.1992093285370096</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2071249107650169</v>
+      </c>
+      <c r="D89">
+        <v>0.0100020411367721</v>
+      </c>
+      <c r="E89">
+        <v>-0.1318505897094004</v>
+      </c>
+      <c r="F89">
+        <v>-0.001879940068693056</v>
+      </c>
+      <c r="G89">
+        <v>-0.02366494661980492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1829573306656506</v>
+        <v>-0.1867169869604885</v>
       </c>
       <c r="C90">
-        <v>-0.2314086286374541</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.234593407322036</v>
+      </c>
+      <c r="D90">
+        <v>0.03241750224619373</v>
+      </c>
+      <c r="E90">
+        <v>-0.2141785149941491</v>
+      </c>
+      <c r="F90">
+        <v>-0.002844067948738471</v>
+      </c>
+      <c r="G90">
+        <v>-0.05732175896294259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1268830073334939</v>
+        <v>-0.1206519936432929</v>
       </c>
       <c r="C91">
-        <v>-0.02034686545150065</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01754040562746414</v>
+      </c>
+      <c r="D91">
+        <v>0.008512465942665554</v>
+      </c>
+      <c r="E91">
+        <v>0.1683241170404807</v>
+      </c>
+      <c r="F91">
+        <v>0.02768507798558287</v>
+      </c>
+      <c r="G91">
+        <v>0.08466701717876733</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1761526621463341</v>
+        <v>-0.1775205856651106</v>
       </c>
       <c r="C92">
-        <v>-0.2642747773483983</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2750517199556218</v>
+      </c>
+      <c r="D92">
+        <v>0.0326846243263828</v>
+      </c>
+      <c r="E92">
+        <v>-0.1992952497656445</v>
+      </c>
+      <c r="F92">
+        <v>0.08932233883187042</v>
+      </c>
+      <c r="G92">
+        <v>-0.07044174144956775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1799607312708258</v>
+        <v>-0.1870999948283766</v>
       </c>
       <c r="C93">
-        <v>-0.2239461262674553</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2283211015017704</v>
+      </c>
+      <c r="D93">
+        <v>0.01685263976150417</v>
+      </c>
+      <c r="E93">
+        <v>-0.09597064194706821</v>
+      </c>
+      <c r="F93">
+        <v>0.05808089315414762</v>
+      </c>
+      <c r="G93">
+        <v>-0.06615896406261157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1185627540571369</v>
+        <v>-0.1126366869083159</v>
       </c>
       <c r="C94">
-        <v>0.03654848133645174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03693436330344447</v>
+      </c>
+      <c r="D94">
+        <v>-0.03580601351213459</v>
+      </c>
+      <c r="E94">
+        <v>0.117373332321447</v>
+      </c>
+      <c r="F94">
+        <v>0.03484181231021431</v>
+      </c>
+      <c r="G94">
+        <v>0.02033748940115904</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1175691115952912</v>
+        <v>-0.1185037691195689</v>
       </c>
       <c r="C95">
-        <v>0.1043461137097331</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1138663069761175</v>
+      </c>
+      <c r="D95">
+        <v>7.656229625947022e-06</v>
+      </c>
+      <c r="E95">
+        <v>-0.03943589248505915</v>
+      </c>
+      <c r="F95">
+        <v>0.06184514015254754</v>
+      </c>
+      <c r="G95">
+        <v>-0.004203176657349582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1159288211351118</v>
+        <v>-0.1138748613433249</v>
       </c>
       <c r="C96">
-        <v>0.1285196653003066</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1319283171266345</v>
+      </c>
+      <c r="D96">
+        <v>0.01516039989468666</v>
+      </c>
+      <c r="E96">
+        <v>0.03076112136699882</v>
+      </c>
+      <c r="F96">
+        <v>-0.04699166836527201</v>
+      </c>
+      <c r="G96">
+        <v>-0.1329384447691806</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1977825439904697</v>
+        <v>-0.2006263743841388</v>
       </c>
       <c r="C97">
-        <v>0.01957925427077458</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01108967908194415</v>
+      </c>
+      <c r="D97">
+        <v>0.2010152430730089</v>
+      </c>
+      <c r="E97">
+        <v>0.05159479408837665</v>
+      </c>
+      <c r="F97">
+        <v>-0.552923572048216</v>
+      </c>
+      <c r="G97">
+        <v>0.6182326416201458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1998875849441865</v>
+        <v>-0.2061327531920752</v>
       </c>
       <c r="C98">
-        <v>0.02546199531952427</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02931639423598576</v>
+      </c>
+      <c r="D98">
+        <v>0.08298441388426732</v>
+      </c>
+      <c r="E98">
+        <v>0.01892534426815874</v>
+      </c>
+      <c r="F98">
+        <v>-0.1296246498419412</v>
+      </c>
+      <c r="G98">
+        <v>-0.07586037279979599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05407146456972536</v>
+        <v>-0.05290304237160082</v>
       </c>
       <c r="C99">
-        <v>0.06170880522411604</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06130937809485083</v>
+      </c>
+      <c r="D99">
+        <v>-0.004166255702063128</v>
+      </c>
+      <c r="E99">
+        <v>-0.03177548948380921</v>
+      </c>
+      <c r="F99">
+        <v>0.007328404750127842</v>
+      </c>
+      <c r="G99">
+        <v>0.006353591669996874</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09546565055242352</v>
+        <v>-0.09133782539036986</v>
       </c>
       <c r="C100">
-        <v>0.3225158324696416</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.3037003039016133</v>
+      </c>
+      <c r="D100">
+        <v>0.2674786741854994</v>
+      </c>
+      <c r="E100">
+        <v>-0.4286123635559931</v>
+      </c>
+      <c r="F100">
+        <v>-0.4897480929504077</v>
+      </c>
+      <c r="G100">
+        <v>-0.2222245752950106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02460305063569643</v>
+        <v>-0.02665828898911451</v>
       </c>
       <c r="C101">
-        <v>0.05451956500918848</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05237733152155675</v>
+      </c>
+      <c r="D101">
+        <v>-0.004435227006841807</v>
+      </c>
+      <c r="E101">
+        <v>-0.04659473628502382</v>
+      </c>
+      <c r="F101">
+        <v>0.04729404652578834</v>
+      </c>
+      <c r="G101">
+        <v>0.003810293046355346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
